--- a/biology/Botanique/Forêt_de_Freyr/Forêt_de_Freyr.xlsx
+++ b/biology/Botanique/Forêt_de_Freyr/Forêt_de_Freyr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Freyr</t>
+          <t>Forêt_de_Freyr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carte interactive de la forêt de Freyr
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Freyr</t>
+          <t>Forêt_de_Freyr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une superficie de 3 103,16 hectares, la forêt s'étend sur le territoire des communes de Tenneville, Sainte-Ode, Saint-Hubert et Libramont-Chevigny. Elle est limitée au nord-ouest par la route nationale 89 entre la Barrière de Champlon et Saint-Hubert. De l'autre côté de cette route, l'espace boisé se prolonge par la forêt du Roi Albert.
 En outre, l'aérodrome de Saint-Hubert et le village de Laneuville-au-Bois sont entourés par la forêt de Freyr.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Freyr</t>
+          <t>Forêt_de_Freyr</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce végétale la plus représentative est le hêtre.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Freyr</t>
+          <t>Forêt_de_Freyr</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Sources et liens externes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Biodiversite.wallonie</t>
         </is>
